--- a/xlsx/沙烏地阿拉伯_intext.xlsx
+++ b/xlsx/沙烏地阿拉伯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿拉伯語</t>
   </si>
   <si>
-    <t>政策_政策_美國_沙烏地阿拉伯</t>
+    <t>体育运动_体育运动_伊朗_沙烏地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E6%97%97</t>
